--- a/02workspace/02MysqlInsertData/test.xlsx
+++ b/02workspace/02MysqlInsertData/test.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,292 +423,176 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>23.2065681</v>
+        <v>9.867011099999999</v>
       </c>
       <c r="B1" t="n">
-        <v>23.3066584</v>
+        <v>9.7253405</v>
       </c>
       <c r="C1" t="n">
-        <v>23.2068136</v>
+        <v>9.8163807</v>
       </c>
       <c r="D1" t="n">
-        <v>23.2168292</v>
+        <v>9.8680983</v>
       </c>
       <c r="E1" t="n">
-        <v>23.2328405</v>
+        <v>9.7202392</v>
       </c>
       <c r="F1" t="n">
-        <v>23.1940017</v>
+        <v>9.6308814</v>
       </c>
       <c r="G1" t="n">
-        <v>23.265846</v>
+        <v>9.7147626</v>
       </c>
       <c r="H1" t="n">
-        <v>23.2171004</v>
+        <v>9.7060189</v>
       </c>
       <c r="I1" t="n">
-        <v>23.239186</v>
+        <v>9.712510999999999</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>34.4827012</v>
+        <v>7.8342017</v>
       </c>
       <c r="B2" t="n">
-        <v>34.8683154</v>
+        <v>7.762436</v>
       </c>
       <c r="C2" t="n">
-        <v>34.8683145</v>
+        <v>7.7671494</v>
       </c>
       <c r="D2" t="n">
-        <v>34.8526315</v>
+        <v>7.7567106</v>
       </c>
       <c r="E2" t="n">
-        <v>34.8704756</v>
+        <v>7.7606484</v>
       </c>
       <c r="F2" t="n">
-        <v>34.8884577</v>
+        <v>7.8323117</v>
       </c>
       <c r="G2" t="n">
-        <v>34.8686525</v>
+        <v>7.7967135</v>
       </c>
       <c r="H2" t="n">
-        <v>34.8574849</v>
+        <v>7.8234511</v>
       </c>
       <c r="I2" t="n">
-        <v>34.8694651</v>
+        <v>7.7919882</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>21.4541904</v>
+        <v>22.9575801</v>
       </c>
       <c r="B3" t="n">
-        <v>21.4151742</v>
+        <v>20.1474325</v>
       </c>
       <c r="C3" t="n">
-        <v>21.3534973</v>
+        <v>19.9742962</v>
       </c>
       <c r="D3" t="n">
-        <v>21.411611</v>
+        <v>20.1831176</v>
       </c>
       <c r="E3" t="n">
-        <v>21.3648733</v>
+        <v>19.8601851</v>
       </c>
       <c r="F3" t="n">
-        <v>21.4596441</v>
+        <v>20.3452376</v>
       </c>
       <c r="G3" t="n">
-        <v>21.3624752</v>
+        <v>20.1621432</v>
       </c>
       <c r="H3" t="n">
-        <v>21.3546331</v>
+        <v>20.265764</v>
       </c>
       <c r="I3" t="n">
-        <v>21.3781974</v>
+        <v>19.2809877</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>36.5004328</v>
+        <v>21.8893358</v>
       </c>
       <c r="B4" t="n">
-        <v>35.9232214</v>
+        <v>17.7635828</v>
       </c>
       <c r="C4" t="n">
-        <v>35.6288155</v>
+        <v>17.3535749</v>
       </c>
       <c r="D4" t="n">
-        <v>35.6844637</v>
+        <v>17.6225421</v>
       </c>
       <c r="E4" t="n">
-        <v>36.1480485</v>
+        <v>17.5978203</v>
       </c>
       <c r="F4" t="n">
-        <v>36.0178201</v>
+        <v>17.188448</v>
       </c>
       <c r="G4" t="n">
-        <v>35.6608132</v>
+        <v>18.05248</v>
       </c>
       <c r="H4" t="n">
-        <v>35.9872751</v>
+        <v>18.2751102</v>
       </c>
       <c r="I4" t="n">
-        <v>36.238391</v>
+        <v>17.6345677</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>59.4910282</v>
+        <v>131.9515115</v>
       </c>
       <c r="B5" t="n">
-        <v>39.1944224</v>
+        <v>118.1792639</v>
       </c>
       <c r="C5" t="n">
-        <v>38.1637797</v>
+        <v>120.8341072</v>
       </c>
       <c r="D5" t="n">
-        <v>38.2480673</v>
+        <v>121.2614598</v>
       </c>
       <c r="E5" t="n">
-        <v>39.2072343</v>
+        <v>121.2888621</v>
       </c>
       <c r="F5" t="n">
-        <v>37.4922657</v>
+        <v>119.4894228</v>
       </c>
       <c r="G5" t="n">
-        <v>38.2453602</v>
+        <v>115.1188259</v>
       </c>
       <c r="H5" t="n">
-        <v>37.4197879</v>
+        <v>120.1025616</v>
       </c>
       <c r="I5" t="n">
-        <v>37.8853247</v>
+        <v>121.3758456</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>19.3615225</v>
+        <v>98.1971939</v>
       </c>
       <c r="B6" t="n">
-        <v>19.762541</v>
+        <v>86.4668405</v>
       </c>
       <c r="C6" t="n">
-        <v>19.102129</v>
+        <v>86.01238789999999</v>
       </c>
       <c r="D6" t="n">
-        <v>18.4475629</v>
+        <v>86.4653581</v>
       </c>
       <c r="E6" t="n">
-        <v>19.1238035</v>
+        <v>86.1066385</v>
       </c>
       <c r="F6" t="n">
-        <v>18.5679421</v>
+        <v>86.2020722</v>
       </c>
       <c r="G6" t="n">
-        <v>18.7535435</v>
+        <v>97.33386900000001</v>
       </c>
       <c r="H6" t="n">
-        <v>18.4510747</v>
+        <v>88.39151769999999</v>
       </c>
       <c r="I6" t="n">
-        <v>18.4416462</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>57.8370343</v>
-      </c>
-      <c r="B7" t="n">
-        <v>42.173617</v>
-      </c>
-      <c r="C7" t="n">
-        <v>43.7641299</v>
-      </c>
-      <c r="D7" t="n">
-        <v>44.3974267</v>
-      </c>
-      <c r="E7" t="n">
-        <v>41.9915332</v>
-      </c>
-      <c r="F7" t="n">
-        <v>40.9270383</v>
-      </c>
-      <c r="G7" t="n">
-        <v>42.0393922</v>
-      </c>
-      <c r="H7" t="n">
-        <v>41.4683008</v>
-      </c>
-      <c r="I7" t="n">
-        <v>43.3356507</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>30.7069576</v>
-      </c>
-      <c r="B8" t="n">
-        <v>27.0264901</v>
-      </c>
-      <c r="C8" t="n">
-        <v>26.0554114</v>
-      </c>
-      <c r="D8" t="n">
-        <v>26.5105178</v>
-      </c>
-      <c r="E8" t="n">
-        <v>25.7403803</v>
-      </c>
-      <c r="F8" t="n">
-        <v>25.6213323</v>
-      </c>
-      <c r="G8" t="n">
-        <v>24.678972</v>
-      </c>
-      <c r="H8" t="n">
-        <v>25.0016892</v>
-      </c>
-      <c r="I8" t="n">
-        <v>27.579456</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>61.3705149</v>
-      </c>
-      <c r="B9" t="n">
-        <v>38.4841617</v>
-      </c>
-      <c r="C9" t="n">
-        <v>40.7755438</v>
-      </c>
-      <c r="D9" t="n">
-        <v>39.1888624</v>
-      </c>
-      <c r="E9" t="n">
-        <v>41.0252406</v>
-      </c>
-      <c r="F9" t="n">
-        <v>38.9338516</v>
-      </c>
-      <c r="G9" t="n">
-        <v>40.9337565</v>
-      </c>
-      <c r="H9" t="n">
-        <v>38.6632833</v>
-      </c>
-      <c r="I9" t="n">
-        <v>38.6346185</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>36.5940869</v>
-      </c>
-      <c r="B10" t="n">
-        <v>36.8005688</v>
-      </c>
-      <c r="C10" t="n">
-        <v>36.9429398</v>
-      </c>
-      <c r="D10" t="n">
-        <v>35.9419698</v>
-      </c>
-      <c r="E10" t="n">
-        <v>37.2900835</v>
-      </c>
-      <c r="F10" t="n">
-        <v>36.6858825</v>
-      </c>
-      <c r="G10" t="n">
-        <v>36.5124107</v>
-      </c>
-      <c r="H10" t="n">
-        <v>36.9032856</v>
-      </c>
-      <c r="I10" t="n">
-        <v>36.6879708</v>
+        <v>86.11710669999999</v>
       </c>
     </row>
   </sheetData>
